--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H2">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I2">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J2">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>1.668403759318333</v>
+        <v>0.2064962025794445</v>
       </c>
       <c r="R2">
-        <v>15.015633833865</v>
+        <v>1.858465823215</v>
       </c>
       <c r="S2">
-        <v>0.2794071216770002</v>
+        <v>0.1562067998176844</v>
       </c>
       <c r="T2">
-        <v>0.2794071216770002</v>
+        <v>0.1562067998176844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H3">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I3">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J3">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
-        <v>1.627720217655</v>
+        <v>0.277753632521</v>
       </c>
       <c r="R3">
-        <v>14.649481958895</v>
+        <v>2.499782692689</v>
       </c>
       <c r="S3">
-        <v>0.2725938600715345</v>
+        <v>0.2101104307579236</v>
       </c>
       <c r="T3">
-        <v>0.2725938600715345</v>
+        <v>0.2101104307579236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H4">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I4">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J4">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>1.121851365693333</v>
+        <v>0.1573631951758889</v>
       </c>
       <c r="R4">
-        <v>10.09666229124</v>
+        <v>1.416268756583</v>
       </c>
       <c r="S4">
-        <v>0.1878761416636072</v>
+        <v>0.1190394826658096</v>
       </c>
       <c r="T4">
-        <v>0.1878761416636072</v>
+        <v>0.1190394826658095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H5">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I5">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J5">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N5">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q5">
-        <v>0.2846958584381111</v>
+        <v>0.2189562470227778</v>
       </c>
       <c r="R5">
-        <v>2.562262725943</v>
+        <v>1.970606223205</v>
       </c>
       <c r="S5">
-        <v>0.04767793761868278</v>
+        <v>0.1656323662143857</v>
       </c>
       <c r="T5">
-        <v>0.04767793761868278</v>
+        <v>0.1656323662143857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H6">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I6">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J6">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q6">
-        <v>0.277753632521</v>
+        <v>0.294513372227</v>
       </c>
       <c r="R6">
-        <v>2.499782692689</v>
+        <v>2.650620350043</v>
       </c>
       <c r="S6">
-        <v>0.04651532494132703</v>
+        <v>0.2227885588423586</v>
       </c>
       <c r="T6">
-        <v>0.04651532494132704</v>
+        <v>0.2227885588423586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H7">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I7">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J7">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N7">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q7">
-        <v>0.1914323411297777</v>
+        <v>0.1668585388245556</v>
       </c>
       <c r="R7">
-        <v>1.722891070168</v>
+        <v>1.501726849421</v>
       </c>
       <c r="S7">
-        <v>0.0320591218595758</v>
+        <v>0.1262223617018381</v>
       </c>
       <c r="T7">
-        <v>0.03205912185957581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.022247</v>
-      </c>
-      <c r="I8">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J8">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>40.70766766666667</v>
-      </c>
-      <c r="N8">
-        <v>122.123003</v>
-      </c>
-      <c r="O8">
-        <v>0.3776398983502007</v>
-      </c>
-      <c r="P8">
-        <v>0.3776398983502007</v>
-      </c>
-      <c r="Q8">
-        <v>0.3018744941934444</v>
-      </c>
-      <c r="R8">
-        <v>2.716870447741</v>
-      </c>
-      <c r="S8">
-        <v>0.0505548390545177</v>
-      </c>
-      <c r="T8">
-        <v>0.05055483905451769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.022247</v>
-      </c>
-      <c r="I9">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J9">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>39.715023</v>
-      </c>
-      <c r="N9">
-        <v>119.145069</v>
-      </c>
-      <c r="O9">
-        <v>0.3684312589831062</v>
-      </c>
-      <c r="P9">
-        <v>0.3684312589831062</v>
-      </c>
-      <c r="Q9">
-        <v>0.294513372227</v>
-      </c>
-      <c r="R9">
-        <v>2.650620350043</v>
-      </c>
-      <c r="S9">
-        <v>0.04932207397024463</v>
-      </c>
-      <c r="T9">
-        <v>0.04932207397024463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.022247</v>
-      </c>
-      <c r="I10">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J10">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>27.37224266666666</v>
-      </c>
-      <c r="N10">
-        <v>82.11672799999999</v>
-      </c>
-      <c r="O10">
-        <v>0.253928842666693</v>
-      </c>
-      <c r="P10">
-        <v>0.253928842666693</v>
-      </c>
-      <c r="Q10">
-        <v>0.2029834275351111</v>
-      </c>
-      <c r="R10">
-        <v>1.826850847816</v>
-      </c>
-      <c r="S10">
-        <v>0.03399357914350998</v>
-      </c>
-      <c r="T10">
-        <v>0.03399357914350998</v>
+        <v>0.1262223617018381</v>
       </c>
     </row>
   </sheetData>
